--- a/metadados/classificacao_variaveis.xlsx
+++ b/metadados/classificacao_variaveis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\08_modelo_delivery\Modelo_Delivery\metadados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC32C5D-091A-4A65-814C-52AFC09C68AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3A499C-BF4B-4E8E-AF41-A389201D0B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="16200" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
     <sheet name="Classificação" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classificação!$B$1:$G$53</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -869,7 +872,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +953,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -965,7 +968,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
@@ -980,7 +983,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>27</v>
@@ -995,7 +998,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>31</v>
@@ -1010,7 +1013,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>35</v>
@@ -1023,7 +1026,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>38</v>
@@ -1036,7 +1039,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>41</v>
@@ -1049,7 +1052,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>44</v>
@@ -1057,18 +1060,20 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -1143,9 +1148,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="7"/>
     </row>
   </sheetData>
@@ -1158,7 +1161,7 @@
   <dimension ref="B1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,6 +2216,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:G53" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/metadados/classificacao_variaveis.xlsx
+++ b/metadados/classificacao_variaveis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\08_modelo_delivery\Modelo_Delivery\metadados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3A499C-BF4B-4E8E-AF41-A389201D0B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE76ED39-A2E8-4E67-AE07-7047239D0159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="16200" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classificação!$B$1:$G$53</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,5 +2218,6 @@
   </sheetData>
   <autoFilter ref="B1:G53" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>